--- a/INTLINE/data/142/STANOR/old/09189 Final expenditure and gross domestic product by macroeconomic indicator contents and year.xlsx
+++ b/INTLINE/data/142/STANOR/old/09189 Final expenditure and gross domestic product by macroeconomic indicator contents and year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>09189: Final expenditure and gross domestic product, by macroeconomic indicator, contents and year</x:t>
   </x:si>
@@ -170,6 +170,9 @@
   </x:si>
   <x:si>
     <x:t>2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021</x:t>
   </x:si>
   <x:si>
     <x:t>Final consumption expenditure of households and NPISHs</x:t>
@@ -335,13 +338,13 @@
     <x:t>Figures from 2020 onwards are preliminary.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current prices (NOK million):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211119 08:00</x:t>
+    <x:t>20220216 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -797,24 +800,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:BA102"/>
+  <x:dimension ref="A1:BB102"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.300625" style="0" customWidth="1"/>
-    <x:col min="3" max="23" width="8.210625" style="0" customWidth="1"/>
-    <x:col min="24" max="53" width="9.270625" style="0" customWidth="1"/>
+    <x:col min="1" max="54" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:53">
+    <x:row r="1" spans="1:54">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:53">
+    <x:row r="3" spans="1:54">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -968,13 +968,16 @@
       <x:c r="BA3" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="BB3" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:53">
+    <x:row r="4" spans="1:54">
       <x:c r="A4" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>47605</x:v>
@@ -1129,13 +1132,16 @@
       <x:c r="BA4" s="3" t="n">
         <x:v>1500036</x:v>
       </x:c>
+      <x:c r="BB4" s="3" t="n">
+        <x:v>1616947</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:53">
+    <x:row r="5" spans="1:54">
       <x:c r="A5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>45214</x:v>
@@ -1290,13 +1296,16 @@
       <x:c r="BA5" s="3" t="n">
         <x:v>1421643</x:v>
       </x:c>
+      <x:c r="BB5" s="3" t="n">
+        <x:v>1530789</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:53">
+    <x:row r="6" spans="1:54">
       <x:c r="A6" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>29709</x:v>
@@ -1451,13 +1460,16 @@
       <x:c r="BA6" s="3" t="n">
         <x:v>728585</x:v>
       </x:c>
+      <x:c r="BB6" s="3" t="n">
+        <x:v>802102</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:53">
+    <x:row r="7" spans="1:54">
       <x:c r="A7" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>15993</x:v>
@@ -1612,13 +1624,16 @@
       <x:c r="BA7" s="3" t="n">
         <x:v>680638</x:v>
       </x:c>
+      <x:c r="BB7" s="3" t="n">
+        <x:v>717816</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:53">
+    <x:row r="8" spans="1:54">
       <x:c r="A8" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>749</x:v>
@@ -1773,13 +1788,16 @@
       <x:c r="BA8" s="3" t="n">
         <x:v>29547</x:v>
       </x:c>
+      <x:c r="BB8" s="3" t="n">
+        <x:v>27499</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:53">
+    <x:row r="9" spans="1:54">
       <x:c r="A9" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>-1237</x:v>
@@ -1934,13 +1952,16 @@
       <x:c r="BA9" s="3" t="n">
         <x:v>-17126</x:v>
       </x:c>
+      <x:c r="BB9" s="3" t="n">
+        <x:v>-16628</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:53">
+    <x:row r="10" spans="1:54">
       <x:c r="A10" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>2391</x:v>
@@ -2095,13 +2116,16 @@
       <x:c r="BA10" s="3" t="n">
         <x:v>78392</x:v>
       </x:c>
+      <x:c r="BB10" s="3" t="n">
+        <x:v>86158</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:53">
+    <x:row r="11" spans="1:54">
       <x:c r="A11" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>14376</x:v>
@@ -2256,13 +2280,16 @@
       <x:c r="BA11" s="3" t="n">
         <x:v>905323</x:v>
       </x:c>
+      <x:c r="BB11" s="3" t="n">
+        <x:v>965837</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:53">
+    <x:row r="12" spans="1:54">
       <x:c r="A12" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>7034</x:v>
@@ -2417,13 +2444,16 @@
       <x:c r="BA12" s="3" t="n">
         <x:v>449794</x:v>
       </x:c>
+      <x:c r="BB12" s="3" t="n">
+        <x:v>478058</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:53">
+    <x:row r="13" spans="1:54">
       <x:c r="A13" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>4399</x:v>
@@ -2578,13 +2608,16 @@
       <x:c r="BA13" s="3" t="n">
         <x:v>396358</x:v>
       </x:c>
+      <x:c r="BB13" s="3" t="n">
+        <x:v>421420</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:53">
+    <x:row r="14" spans="1:54">
       <x:c r="A14" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>2635</x:v>
@@ -2739,13 +2772,16 @@
       <x:c r="BA14" s="3" t="n">
         <x:v>53436</x:v>
       </x:c>
+      <x:c r="BB14" s="3" t="n">
+        <x:v>56638</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:53">
+    <x:row r="15" spans="1:54">
       <x:c r="A15" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>7342</x:v>
@@ -2900,13 +2936,16 @@
       <x:c r="BA15" s="3" t="n">
         <x:v>455529</x:v>
       </x:c>
+      <x:c r="BB15" s="3" t="n">
+        <x:v>487779</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:53">
+    <x:row r="16" spans="1:54">
       <x:c r="A16" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>25616</x:v>
@@ -3061,13 +3100,16 @@
       <x:c r="BA16" s="3" t="n">
         <x:v>932072</x:v>
       </x:c>
+      <x:c r="BB16" s="3" t="n">
+        <x:v>966374</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:53">
+    <x:row r="17" spans="1:54">
       <x:c r="A17" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>313</x:v>
@@ -3222,13 +3264,16 @@
       <x:c r="BA17" s="3" t="n">
         <x:v>181473</x:v>
       </x:c>
+      <x:c r="BB17" s="3" t="n">
+        <x:v>178441</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:53">
+    <x:row r="18" spans="1:54">
       <x:c r="A18" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>2814</x:v>
@@ -3383,13 +3428,16 @@
       <x:c r="BA18" s="3" t="n">
         <x:v>5944</x:v>
       </x:c>
+      <x:c r="BB18" s="3" t="n">
+        <x:v>2322</x:v>
+      </x:c>
     </x:row>
-    <x:row r="19" spans="1:53">
+    <x:row r="19" spans="1:54">
       <x:c r="A19" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>22489</x:v>
@@ -3544,13 +3592,16 @@
       <x:c r="BA19" s="3" t="n">
         <x:v>744655</x:v>
       </x:c>
+      <x:c r="BB19" s="3" t="n">
+        <x:v>785611</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:53">
+    <x:row r="20" spans="1:54">
       <x:c r="A20" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>17748</x:v>
@@ -3705,13 +3756,16 @@
       <x:c r="BA20" s="3" t="n">
         <x:v>527301</x:v>
       </x:c>
+      <x:c r="BB20" s="3" t="n">
+        <x:v>564099</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:53">
+    <x:row r="21" spans="1:54">
       <x:c r="A21" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>12406</x:v>
@@ -3866,13 +3920,16 @@
       <x:c r="BA21" s="3" t="n">
         <x:v>334536</x:v>
       </x:c>
+      <x:c r="BB21" s="3" t="n">
+        <x:v>353464</x:v>
+      </x:c>
     </x:row>
-    <x:row r="22" spans="1:53">
+    <x:row r="22" spans="1:54">
       <x:c r="A22" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>0</x:v>
@@ -4027,13 +4084,16 @@
       <x:c r="BA22" s="3" t="n">
         <x:v>2801</x:v>
       </x:c>
+      <x:c r="BB22" s="3" t="n">
+        <x:v>2684</x:v>
+      </x:c>
     </x:row>
-    <x:row r="23" spans="1:53">
+    <x:row r="23" spans="1:54">
       <x:c r="A23" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>5478</x:v>
@@ -4188,13 +4248,16 @@
       <x:c r="BA23" s="3" t="n">
         <x:v>202876</x:v>
       </x:c>
+      <x:c r="BB23" s="3" t="n">
+        <x:v>221048</x:v>
+      </x:c>
     </x:row>
-    <x:row r="24" spans="1:53">
+    <x:row r="24" spans="1:54">
       <x:c r="A24" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>3307</x:v>
@@ -4349,13 +4412,16 @@
       <x:c r="BA24" s="3" t="n">
         <x:v>48824</x:v>
       </x:c>
+      <x:c r="BB24" s="3" t="n">
+        <x:v>51460</x:v>
+      </x:c>
     </x:row>
-    <x:row r="25" spans="1:53">
+    <x:row r="25" spans="1:54">
       <x:c r="A25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>3621</x:v>
@@ -4510,13 +4576,16 @@
       <x:c r="BA25" s="3" t="n">
         <x:v>80035</x:v>
       </x:c>
+      <x:c r="BB25" s="3" t="n">
+        <x:v>78272</x:v>
+      </x:c>
     </x:row>
-    <x:row r="26" spans="1:53">
+    <x:row r="26" spans="1:54">
       <x:c r="A26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>5342</x:v>
@@ -4671,13 +4740,16 @@
       <x:c r="BA26" s="3" t="n">
         <x:v>192765</x:v>
       </x:c>
+      <x:c r="BB26" s="3" t="n">
+        <x:v>210635</x:v>
+      </x:c>
     </x:row>
-    <x:row r="27" spans="1:53">
+    <x:row r="27" spans="1:54">
       <x:c r="A27" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>4741</x:v>
@@ -4832,13 +4904,16 @@
       <x:c r="BA27" s="3" t="n">
         <x:v>217354</x:v>
       </x:c>
+      <x:c r="BB27" s="3" t="n">
+        <x:v>221512</x:v>
+      </x:c>
     </x:row>
-    <x:row r="28" spans="1:53">
+    <x:row r="28" spans="1:54">
       <x:c r="A28" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>6</x:v>
@@ -4993,13 +5068,16 @@
       <x:c r="BA28" s="3" t="n">
         <x:v>171</x:v>
       </x:c>
+      <x:c r="BB28" s="3" t="n">
+        <x:v>296</x:v>
+      </x:c>
     </x:row>
-    <x:row r="29" spans="1:53">
+    <x:row r="29" spans="1:54">
       <x:c r="A29" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>4497</x:v>
@@ -5154,13 +5232,16 @@
       <x:c r="BA29" s="3" t="n">
         <x:v>101445</x:v>
       </x:c>
+      <x:c r="BB29" s="3" t="n">
+        <x:v>78473</x:v>
+      </x:c>
     </x:row>
-    <x:row r="30" spans="1:53">
+    <x:row r="30" spans="1:54">
       <x:c r="A30" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>30119</x:v>
@@ -5315,13 +5396,16 @@
       <x:c r="BA30" s="3" t="n">
         <x:v>1033687</x:v>
       </x:c>
+      <x:c r="BB30" s="3" t="n">
+        <x:v>1045143</x:v>
+      </x:c>
     </x:row>
-    <x:row r="31" spans="1:53">
+    <x:row r="31" spans="1:54">
       <x:c r="A31" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>92100</x:v>
@@ -5476,13 +5560,16 @@
       <x:c r="BA31" s="3" t="n">
         <x:v>3439045</x:v>
       </x:c>
+      <x:c r="BB31" s="3" t="n">
+        <x:v>3627926</x:v>
+      </x:c>
     </x:row>
-    <x:row r="32" spans="1:53">
+    <x:row r="32" spans="1:54">
       <x:c r="A32" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>84470</x:v>
@@ -5637,13 +5724,16 @@
       <x:c r="BA32" s="3" t="n">
         <x:v>3150013</x:v>
       </x:c>
+      <x:c r="BB32" s="3" t="n">
+        <x:v>3368394</x:v>
+      </x:c>
     </x:row>
-    <x:row r="33" spans="1:53">
+    <x:row r="33" spans="1:54">
       <x:c r="A33" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>19117</x:v>
@@ -5798,13 +5888,16 @@
       <x:c r="BA33" s="3" t="n">
         <x:v>1122677</x:v>
       </x:c>
+      <x:c r="BB33" s="3" t="n">
+        <x:v>1187349</x:v>
+      </x:c>
     </x:row>
-    <x:row r="34" spans="1:53">
+    <x:row r="34" spans="1:54">
       <x:c r="A34" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C34" s="3" t="n">
         <x:v>33387</x:v>
@@ -5959,13 +6052,16 @@
       <x:c r="BA34" s="3" t="n">
         <x:v>1099692</x:v>
       </x:c>
+      <x:c r="BB34" s="3" t="n">
+        <x:v>1722661</x:v>
+      </x:c>
     </x:row>
-    <x:row r="35" spans="1:53">
+    <x:row r="35" spans="1:54">
       <x:c r="A35" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C35" s="3" t="n">
         <x:v>14934</x:v>
@@ -6120,13 +6216,16 @@
       <x:c r="BA35" s="3" t="n">
         <x:v>408507</x:v>
       </x:c>
+      <x:c r="BB35" s="3" t="n">
+        <x:v>492866</x:v>
+      </x:c>
     </x:row>
-    <x:row r="36" spans="1:53">
+    <x:row r="36" spans="1:54">
       <x:c r="A36" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C36" s="3" t="n">
         <x:v>163</x:v>
@@ -6281,13 +6380,16 @@
       <x:c r="BA36" s="3" t="n">
         <x:v>352963</x:v>
       </x:c>
+      <x:c r="BB36" s="3" t="n">
+        <x:v>861659</x:v>
+      </x:c>
     </x:row>
-    <x:row r="37" spans="1:53">
+    <x:row r="37" spans="1:54">
       <x:c r="A37" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C37" s="3" t="n">
         <x:v>2360</x:v>
@@ -6442,13 +6544,16 @@
       <x:c r="BA37" s="3" t="n">
         <x:v>9370</x:v>
       </x:c>
+      <x:c r="BB37" s="3" t="n">
+        <x:v>13936</x:v>
+      </x:c>
     </x:row>
-    <x:row r="38" spans="1:53">
+    <x:row r="38" spans="1:54">
       <x:c r="A38" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C38" s="3" t="n">
         <x:v>15930</x:v>
@@ -6603,13 +6708,16 @@
       <x:c r="BA38" s="3" t="n">
         <x:v>328852</x:v>
       </x:c>
+      <x:c r="BB38" s="3" t="n">
+        <x:v>354200</x:v>
+      </x:c>
     </x:row>
-    <x:row r="39" spans="1:53">
+    <x:row r="39" spans="1:54">
       <x:c r="A39" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C39" s="3" t="n">
         <x:v>125487</x:v>
@@ -6764,13 +6872,16 @@
       <x:c r="BA39" s="3" t="n">
         <x:v>4538738</x:v>
       </x:c>
+      <x:c r="BB39" s="3" t="n">
+        <x:v>5350587</x:v>
+      </x:c>
     </x:row>
-    <x:row r="40" spans="1:53">
+    <x:row r="40" spans="1:54">
       <x:c r="A40" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C40" s="3" t="n">
         <x:v>33957</x:v>
@@ -6925,13 +7036,16 @@
       <x:c r="BA40" s="3" t="n">
         <x:v>1128338</x:v>
       </x:c>
+      <x:c r="BB40" s="3" t="n">
+        <x:v>1206453</x:v>
+      </x:c>
     </x:row>
-    <x:row r="41" spans="1:53">
+    <x:row r="41" spans="1:54">
       <x:c r="A41" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C41" s="3" t="n">
         <x:v>22480</x:v>
@@ -7086,13 +7200,16 @@
       <x:c r="BA41" s="3" t="n">
         <x:v>747641</x:v>
       </x:c>
+      <x:c r="BB41" s="3" t="n">
+        <x:v>831304</x:v>
+      </x:c>
     </x:row>
-    <x:row r="42" spans="1:53">
+    <x:row r="42" spans="1:54">
       <x:c r="A42" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C42" s="3" t="n">
         <x:v>1380</x:v>
@@ -7247,13 +7364,16 @@
       <x:c r="BA42" s="3" t="n">
         <x:v>17022</x:v>
       </x:c>
+      <x:c r="BB42" s="3" t="n">
+        <x:v>19247</x:v>
+      </x:c>
     </x:row>
-    <x:row r="43" spans="1:53">
+    <x:row r="43" spans="1:54">
       <x:c r="A43" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C43" s="3" t="n">
         <x:v>3469</x:v>
@@ -7408,13 +7528,16 @@
       <x:c r="BA43" s="3" t="n">
         <x:v>36199</x:v>
       </x:c>
+      <x:c r="BB43" s="3" t="n">
+        <x:v>32693</x:v>
+      </x:c>
     </x:row>
-    <x:row r="44" spans="1:53">
+    <x:row r="44" spans="1:54">
       <x:c r="A44" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="3" t="n">
         <x:v>6628</x:v>
@@ -7569,13 +7692,16 @@
       <x:c r="BA44" s="3" t="n">
         <x:v>327476</x:v>
       </x:c>
+      <x:c r="BB44" s="3" t="n">
+        <x:v>323209</x:v>
+      </x:c>
     </x:row>
-    <x:row r="45" spans="1:53">
+    <x:row r="45" spans="1:54">
       <x:c r="A45" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C45" s="3" t="n">
         <x:v>91530</x:v>
@@ -7730,13 +7856,16 @@
       <x:c r="BA45" s="3" t="n">
         <x:v>3410399</x:v>
       </x:c>
+      <x:c r="BB45" s="3" t="n">
+        <x:v>4144134</x:v>
+      </x:c>
     </x:row>
-    <x:row r="46" spans="1:53">
+    <x:row r="46" spans="1:54">
       <x:c r="A46" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C46" s="3" t="n">
         <x:v>84684</x:v>
@@ -7891,13 +8020,16 @@
       <x:c r="BA46" s="3" t="n">
         <x:v>3042961</x:v>
       </x:c>
+      <x:c r="BB46" s="3" t="n">
+        <x:v>3265338</x:v>
+      </x:c>
     </x:row>
-    <x:row r="47" spans="1:53">
+    <x:row r="47" spans="1:54">
       <x:c r="A47" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C47" s="3" t="n">
         <x:v>6846</x:v>
@@ -8052,13 +8184,16 @@
       <x:c r="BA47" s="3" t="n">
         <x:v>367438</x:v>
       </x:c>
+      <x:c r="BB47" s="3" t="n">
+        <x:v>878796</x:v>
+      </x:c>
     </x:row>
-    <x:row r="48" spans="1:53">
+    <x:row r="48" spans="1:54">
       <x:c r="A48" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C48" s="3" t="n">
         <x:v>73038</x:v>
@@ -8213,13 +8348,16 @@
       <x:c r="BA48" s="3" t="n">
         <x:v>2639172</x:v>
       </x:c>
+      <x:c r="BB48" s="3" t="n">
+        <x:v>2837652</x:v>
+      </x:c>
     </x:row>
-    <x:row r="49" spans="1:53">
+    <x:row r="49" spans="1:54">
       <x:c r="A49" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C49" s="3" t="n">
         <x:v>62065</x:v>
@@ -8374,13 +8512,16 @@
       <x:c r="BA49" s="3" t="n">
         <x:v>1945356</x:v>
       </x:c>
+      <x:c r="BB49" s="3" t="n">
+        <x:v>2105556</x:v>
+      </x:c>
     </x:row>
-    <x:row r="50" spans="1:53">
+    <x:row r="50" spans="1:54">
       <x:c r="A50" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C50" s="3" t="n">
         <x:v>16777</x:v>
@@ -8535,13 +8676,16 @@
       <x:c r="BA50" s="3" t="n">
         <x:v>228894</x:v>
       </x:c>
+      <x:c r="BB50" s="3" t="n">
+        <x:v>237376</x:v>
+      </x:c>
     </x:row>
-    <x:row r="51" spans="1:53">
+    <x:row r="51" spans="1:54">
       <x:c r="A51" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C51" s="3" t="n">
         <x:v>12228</x:v>
@@ -8696,13 +8840,16 @@
       <x:c r="BA51" s="3" t="n">
         <x:v>328023</x:v>
       </x:c>
+      <x:c r="BB51" s="3" t="n">
+        <x:v>408297</x:v>
+      </x:c>
     </x:row>
-    <x:row r="52" spans="1:53">
+    <x:row r="52" spans="1:54">
       <x:c r="A52" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C52" s="3" t="n">
         <x:v>33060</x:v>
@@ -8857,13 +9004,16 @@
       <x:c r="BA52" s="3" t="n">
         <x:v>1388440</x:v>
       </x:c>
+      <x:c r="BB52" s="3" t="n">
+        <x:v>1459884</x:v>
+      </x:c>
     </x:row>
-    <x:row r="53" spans="1:53">
+    <x:row r="53" spans="1:54">
       <x:c r="A53" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="3" t="n">
         <x:v>10973</x:v>
@@ -9018,13 +9168,16 @@
       <x:c r="BA53" s="3" t="n">
         <x:v>693816</x:v>
       </x:c>
+      <x:c r="BB53" s="3" t="n">
+        <x:v>732095</x:v>
+      </x:c>
     </x:row>
-    <x:row r="54" spans="1:53">
+    <x:row r="54" spans="1:54">
       <x:c r="A54" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C54" s="3" t="n">
         <x:v>11646</x:v>
@@ -9179,163 +9332,170 @@
       <x:c r="BA54" s="3" t="n">
         <x:v>403789</x:v>
       </x:c>
+      <x:c r="BB54" s="3" t="n">
+        <x:v>427686</x:v>
+      </x:c>
     </x:row>
-    <x:row r="56" spans="1:53">
+    <x:row r="56" spans="1:54">
       <x:c r="A56" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:53">
+    <x:row r="57" spans="1:54">
       <x:c r="A57" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:53">
+    <x:row r="59" spans="1:54">
       <x:c r="A59" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:53">
+    <x:row r="60" spans="1:54">
       <x:c r="A60" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:53">
+    <x:row r="61" spans="1:54">
       <x:c r="A61" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:54">
+      <x:c r="A63" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:54">
+      <x:c r="A64" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:54">
+      <x:c r="A66" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:54">
+      <x:c r="A67" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:53">
-      <x:c r="A63" s="0" t="s">
-        <x:v>109</x:v>
+    <x:row r="68" spans="1:54">
+      <x:c r="A68" s="0" t="s">
+        <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:53">
-      <x:c r="A64" s="0" t="s">
-        <x:v>110</x:v>
+    <x:row r="69" spans="1:54">
+      <x:c r="A69" s="0" t="s">
+        <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:53">
-      <x:c r="A66" s="0" t="s">
-        <x:v>111</x:v>
+    <x:row r="70" spans="1:54">
+      <x:c r="A70" s="0" t="s">
+        <x:v>115</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:53">
-      <x:c r="A67" s="0" t="s">
-        <x:v>107</x:v>
+    <x:row r="72" spans="1:54">
+      <x:c r="A72" s="0" t="s">
+        <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:53">
-      <x:c r="A68" s="0" t="s">
-        <x:v>112</x:v>
+    <x:row r="73" spans="1:54">
+      <x:c r="A73" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:53">
-      <x:c r="A69" s="0" t="s">
-        <x:v>113</x:v>
+    <x:row r="74" spans="1:54">
+      <x:c r="A74" s="0" t="s">
+        <x:v>118</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:53">
-      <x:c r="A70" s="0" t="s">
-        <x:v>114</x:v>
+    <x:row r="78" spans="1:54">
+      <x:c r="A78" s="0" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:53">
-      <x:c r="A72" s="0" t="s">
-        <x:v>115</x:v>
+    <x:row r="80" spans="1:54">
+      <x:c r="A80" s="0" t="s">
+        <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:53">
-      <x:c r="A73" s="0" t="s">
-        <x:v>116</x:v>
+    <x:row r="81" spans="1:54">
+      <x:c r="A81" s="0" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:53">
-      <x:c r="A74" s="0" t="s">
-        <x:v>117</x:v>
+    <x:row r="82" spans="1:54">
+      <x:c r="A82" s="0" t="s">
+        <x:v>121</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:53">
-      <x:c r="A78" s="0" t="s">
-        <x:v>118</x:v>
+    <x:row r="83" spans="1:54">
+      <x:c r="A83" s="0" t="s">
+        <x:v>122</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:53">
-      <x:c r="A80" s="0" t="s">
-        <x:v>119</x:v>
+    <x:row r="84" spans="1:54">
+      <x:c r="A84" s="0" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:53">
-      <x:c r="A81" s="0" t="s">
-        <x:v>107</x:v>
+    <x:row r="85" spans="1:54">
+      <x:c r="A85" s="0" t="s">
+        <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:53">
-      <x:c r="A82" s="0" t="s">
-        <x:v>120</x:v>
+    <x:row r="87" spans="1:54">
+      <x:c r="A87" s="0" t="s">
+        <x:v>124</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:53">
-      <x:c r="A83" s="0" t="s">
-        <x:v>121</x:v>
+    <x:row r="88" spans="1:54">
+      <x:c r="A88" s="0" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:53">
-      <x:c r="A84" s="0" t="s">
-        <x:v>107</x:v>
+    <x:row r="89" spans="1:54">
+      <x:c r="A89" s="0" t="s">
+        <x:v>125</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:53">
-      <x:c r="A85" s="0" t="s">
-        <x:v>122</x:v>
+    <x:row r="92" spans="1:54">
+      <x:c r="A92" s="0" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:53">
-      <x:c r="A87" s="0" t="s">
-        <x:v>123</x:v>
+    <x:row r="93" spans="1:54">
+      <x:c r="A93" s="0" t="s">
+        <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:53">
-      <x:c r="A88" s="0" t="s">
-        <x:v>53</x:v>
+    <x:row r="98" spans="1:54">
+      <x:c r="A98" s="0" t="s">
+        <x:v>127</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:53">
-      <x:c r="A89" s="0" t="s">
-        <x:v>124</x:v>
+    <x:row r="99" spans="1:54">
+      <x:c r="A99" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:53">
-      <x:c r="A92" s="0" t="s">
-        <x:v>107</x:v>
+    <x:row r="101" spans="1:54">
+      <x:c r="A101" s="0" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:53">
-      <x:c r="A93" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:53">
-      <x:c r="A98" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:53">
-      <x:c r="A99" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:53">
-      <x:c r="A101" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:53">
+    <x:row r="102" spans="1:54">
       <x:c r="A102" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A56:BB56"/>
+    <x:mergeCell ref="A57:BB57"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
